--- a/JupyterNotebooks/AveragedIntensites/alpha1F-HW20.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/alpha1F-HW20.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="alpha1F-HW20.xpc" sheetId="1" r:id="rId1"/>
+    <sheet name="alpha1F" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -952,16 +952,16 @@
         <v>0.9982788055419122</v>
       </c>
       <c r="D13">
-        <v>0.9956681684574962</v>
+        <v>0.9956681684574961</v>
       </c>
       <c r="E13">
-        <v>0.9960100990311173</v>
+        <v>0.9960100990311165</v>
       </c>
       <c r="F13">
         <v>0.9982788055419122</v>
       </c>
       <c r="G13">
-        <v>0.9986732219721114</v>
+        <v>0.9986732219721116</v>
       </c>
       <c r="H13">
         <v>0.9938516544514089</v>
@@ -970,16 +970,16 @@
         <v>0.9959424048917158</v>
       </c>
       <c r="J13">
-        <v>0.9956681684574962</v>
+        <v>0.9956681684574961</v>
       </c>
       <c r="K13">
-        <v>0.9958391337443067</v>
+        <v>0.9958391337443062</v>
       </c>
       <c r="L13">
-        <v>0.9970589696431095</v>
+        <v>0.9970589696431092</v>
       </c>
       <c r="M13">
-        <v>0.996404059057627</v>
+        <v>0.9964040590576269</v>
       </c>
     </row>
     <row r="14" spans="1:13">

--- a/JupyterNotebooks/AveragedIntensites/alpha1F-HW20.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/alpha1F-HW20.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>HKL</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1064,6 +1064,47 @@
         <v>0.99193787556543</v>
       </c>
     </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16">
+        <v>0.9865283727264408</v>
+      </c>
+      <c r="D16">
+        <v>1.428228883633603</v>
+      </c>
+      <c r="E16">
+        <v>0.869706806949326</v>
+      </c>
+      <c r="F16">
+        <v>0.9865283727264408</v>
+      </c>
+      <c r="G16">
+        <v>1.184819198381741</v>
+      </c>
+      <c r="H16">
+        <v>0.773072930309377</v>
+      </c>
+      <c r="I16">
+        <v>0.898727318825298</v>
+      </c>
+      <c r="J16">
+        <v>1.428228883633603</v>
+      </c>
+      <c r="K16">
+        <v>1.148967845291465</v>
+      </c>
+      <c r="L16">
+        <v>1.067748109008953</v>
+      </c>
+      <c r="M16">
+        <v>1.023513918470964</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/JupyterNotebooks/AveragedIntensites/alpha1F-HW20.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/alpha1F-HW20.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>HKL</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
+  </si>
+  <si>
+    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
@@ -498,37 +501,37 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1069,7 +1072,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C16">
         <v>0.9865283727264408</v>

--- a/JupyterNotebooks/AveragedIntensites/alpha1F-HW20.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/alpha1F-HW20.xlsx
@@ -955,16 +955,16 @@
         <v>0.9982788055419122</v>
       </c>
       <c r="D13">
-        <v>0.9956681684574961</v>
+        <v>0.9956681684574962</v>
       </c>
       <c r="E13">
-        <v>0.9960100990311165</v>
+        <v>0.9960100990311173</v>
       </c>
       <c r="F13">
         <v>0.9982788055419122</v>
       </c>
       <c r="G13">
-        <v>0.9986732219721116</v>
+        <v>0.9986732219721114</v>
       </c>
       <c r="H13">
         <v>0.9938516544514089</v>
@@ -973,16 +973,16 @@
         <v>0.9959424048917158</v>
       </c>
       <c r="J13">
-        <v>0.9956681684574961</v>
+        <v>0.9956681684574962</v>
       </c>
       <c r="K13">
-        <v>0.9958391337443062</v>
+        <v>0.9958391337443067</v>
       </c>
       <c r="L13">
-        <v>0.9970589696431092</v>
+        <v>0.9970589696431095</v>
       </c>
       <c r="M13">
-        <v>0.9964040590576269</v>
+        <v>0.996404059057627</v>
       </c>
     </row>
     <row r="14" spans="1:13">

--- a/JupyterNotebooks/AveragedIntensites/alpha1F-HW20.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/alpha1F-HW20.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>HKL</t>
   </si>
@@ -40,6 +40,18 @@
     <t>Ring Perpendicular to TD</t>
   </si>
   <si>
+    <t>Gaussian-Quadrature</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-15rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-3space</t>
+  </si>
+  <si>
     <t>NoRotation-tilt60deg</t>
   </si>
   <si>
@@ -56,9 +68,6 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
-  </si>
-  <si>
-    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
@@ -449,7 +458,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -501,37 +510,37 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -829,37 +838,37 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.548636</v>
+        <v>0.9865283727264408</v>
       </c>
       <c r="D10">
-        <v>1.976844</v>
+        <v>1.428228883633603</v>
       </c>
       <c r="E10">
-        <v>0.8697560000000012</v>
+        <v>0.869706806949326</v>
       </c>
       <c r="F10">
-        <v>0.548636</v>
+        <v>0.9865283727264408</v>
       </c>
       <c r="G10">
-        <v>1.465440000000001</v>
+        <v>1.184819198381741</v>
       </c>
       <c r="H10">
-        <v>0.7194639999999994</v>
+        <v>0.773072930309377</v>
       </c>
       <c r="I10">
-        <v>0.7799999999999992</v>
+        <v>0.898727318825298</v>
       </c>
       <c r="J10">
-        <v>1.976844</v>
+        <v>1.428228883633603</v>
       </c>
       <c r="K10">
-        <v>1.423300000000001</v>
+        <v>1.148967845291465</v>
       </c>
       <c r="L10">
-        <v>0.9859680000000004</v>
+        <v>1.067748109008953</v>
       </c>
       <c r="M10">
-        <v>1.060023333333334</v>
+        <v>1.023513918470964</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -870,37 +879,37 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.45</v>
+        <v>0.880239347012573</v>
       </c>
       <c r="D11">
-        <v>2.556950000000007</v>
+        <v>0.8947826576720911</v>
       </c>
       <c r="E11">
-        <v>0.7031749999999991</v>
+        <v>1.110977069417402</v>
       </c>
       <c r="F11">
-        <v>0.45</v>
+        <v>0.880239347012573</v>
       </c>
       <c r="G11">
-        <v>1.828074999999997</v>
+        <v>0.8353589136339507</v>
       </c>
       <c r="H11">
-        <v>0.23</v>
+        <v>1.437241013263741</v>
       </c>
       <c r="I11">
-        <v>0.63</v>
+        <v>1.045886521370374</v>
       </c>
       <c r="J11">
-        <v>2.556950000000007</v>
+        <v>0.8947826576720911</v>
       </c>
       <c r="K11">
-        <v>1.630062500000003</v>
+        <v>1.002879863544747</v>
       </c>
       <c r="L11">
-        <v>1.040031250000002</v>
+        <v>0.9415596052786599</v>
       </c>
       <c r="M11">
-        <v>1.066366666666667</v>
+        <v>1.034080920395022</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -911,37 +920,37 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.6778572078079995</v>
+        <v>0.8789219695764392</v>
       </c>
       <c r="D12">
-        <v>1.905334808780802</v>
+        <v>0.8971704021558357</v>
       </c>
       <c r="E12">
-        <v>0.8240147506176021</v>
+        <v>1.110753929180567</v>
       </c>
       <c r="F12">
-        <v>0.6778572078079995</v>
+        <v>0.8789219695764392</v>
       </c>
       <c r="G12">
-        <v>1.477191899545599</v>
+        <v>0.8364443414952583</v>
       </c>
       <c r="H12">
-        <v>0.5502961563648009</v>
+        <v>1.436803221209649</v>
       </c>
       <c r="I12">
-        <v>0.7847664870399992</v>
+        <v>1.04533802921504</v>
       </c>
       <c r="J12">
-        <v>1.905334808780802</v>
+        <v>0.8971704021558357</v>
       </c>
       <c r="K12">
-        <v>1.364674779699202</v>
+        <v>1.003962165668201</v>
       </c>
       <c r="L12">
-        <v>1.021265993753601</v>
+        <v>0.9414420676223203</v>
       </c>
       <c r="M12">
-        <v>1.036576885026134</v>
+        <v>1.034238648805465</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -952,37 +961,37 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9982788055419122</v>
+        <v>0.8798539111008098</v>
       </c>
       <c r="D13">
-        <v>0.9956681684574962</v>
+        <v>0.8956816640019253</v>
       </c>
       <c r="E13">
-        <v>0.9960100990311173</v>
+        <v>1.11084362921105</v>
       </c>
       <c r="F13">
-        <v>0.9982788055419122</v>
+        <v>0.8798539111008098</v>
       </c>
       <c r="G13">
-        <v>0.9986732219721114</v>
+        <v>0.83563206745733</v>
       </c>
       <c r="H13">
-        <v>0.9938516544514089</v>
+        <v>1.437000517608397</v>
       </c>
       <c r="I13">
-        <v>0.9959424048917158</v>
+        <v>1.045693606862992</v>
       </c>
       <c r="J13">
-        <v>0.9956681684574962</v>
+        <v>0.8956816640019253</v>
       </c>
       <c r="K13">
-        <v>0.9958391337443067</v>
+        <v>1.003262646606488</v>
       </c>
       <c r="L13">
-        <v>0.9970589696431095</v>
+        <v>0.9415582788536487</v>
       </c>
       <c r="M13">
-        <v>0.996404059057627</v>
+        <v>1.034117566040417</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -993,37 +1002,37 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.014706532736172</v>
+        <v>0.548636</v>
       </c>
       <c r="D14">
-        <v>0.943992376934686</v>
+        <v>1.976844</v>
       </c>
       <c r="E14">
-        <v>1.006122077425917</v>
+        <v>0.8697560000000012</v>
       </c>
       <c r="F14">
-        <v>1.014706532736172</v>
+        <v>0.548636</v>
       </c>
       <c r="G14">
-        <v>0.972260084439138</v>
+        <v>1.465440000000001</v>
       </c>
       <c r="H14">
-        <v>1.022451578629527</v>
+        <v>0.7194639999999994</v>
       </c>
       <c r="I14">
-        <v>1.009240309848914</v>
+        <v>0.7799999999999992</v>
       </c>
       <c r="J14">
-        <v>0.943992376934686</v>
+        <v>1.976844</v>
       </c>
       <c r="K14">
-        <v>0.9750572271803017</v>
+        <v>1.423300000000001</v>
       </c>
       <c r="L14">
-        <v>0.994881879958237</v>
+        <v>0.9859680000000004</v>
       </c>
       <c r="M14">
-        <v>0.9947954933357259</v>
+        <v>1.060023333333334</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1034,37 +1043,37 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.033443441907682</v>
+        <v>0.45</v>
       </c>
       <c r="D15">
-        <v>0.8399899979272517</v>
+        <v>2.556950000000007</v>
       </c>
       <c r="E15">
-        <v>1.033132714807611</v>
+        <v>0.7031749999999991</v>
       </c>
       <c r="F15">
-        <v>1.033443441907682</v>
+        <v>0.45</v>
       </c>
       <c r="G15">
-        <v>0.9055783693225501</v>
+        <v>1.828074999999997</v>
       </c>
       <c r="H15">
-        <v>1.101052795982123</v>
+        <v>0.23</v>
       </c>
       <c r="I15">
-        <v>1.038429933445363</v>
+        <v>0.63</v>
       </c>
       <c r="J15">
-        <v>0.8399899979272517</v>
+        <v>2.556950000000007</v>
       </c>
       <c r="K15">
-        <v>0.9365613563674313</v>
+        <v>1.630062500000003</v>
       </c>
       <c r="L15">
-        <v>0.9850023991375567</v>
+        <v>1.040031250000002</v>
       </c>
       <c r="M15">
-        <v>0.99193787556543</v>
+        <v>1.066366666666667</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1075,37 +1084,160 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9865283727264408</v>
+        <v>0.6778572078079995</v>
       </c>
       <c r="D16">
-        <v>1.428228883633603</v>
+        <v>1.905334808780802</v>
       </c>
       <c r="E16">
-        <v>0.869706806949326</v>
+        <v>0.8240147506176021</v>
       </c>
       <c r="F16">
-        <v>0.9865283727264408</v>
+        <v>0.6778572078079995</v>
       </c>
       <c r="G16">
-        <v>1.184819198381741</v>
+        <v>1.477191899545599</v>
       </c>
       <c r="H16">
-        <v>0.773072930309377</v>
+        <v>0.5502961563648009</v>
       </c>
       <c r="I16">
-        <v>0.898727318825298</v>
+        <v>0.7847664870399992</v>
       </c>
       <c r="J16">
-        <v>1.428228883633603</v>
+        <v>1.905334808780802</v>
       </c>
       <c r="K16">
-        <v>1.148967845291465</v>
+        <v>1.364674779699202</v>
       </c>
       <c r="L16">
-        <v>1.067748109008953</v>
+        <v>1.021265993753601</v>
       </c>
       <c r="M16">
-        <v>1.023513918470964</v>
+        <v>1.036576885026134</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>0.9982788055419122</v>
+      </c>
+      <c r="D17">
+        <v>0.9956681684574961</v>
+      </c>
+      <c r="E17">
+        <v>0.9960100990311165</v>
+      </c>
+      <c r="F17">
+        <v>0.9982788055419122</v>
+      </c>
+      <c r="G17">
+        <v>0.9986732219721116</v>
+      </c>
+      <c r="H17">
+        <v>0.9938516544514089</v>
+      </c>
+      <c r="I17">
+        <v>0.9959424048917158</v>
+      </c>
+      <c r="J17">
+        <v>0.9956681684574961</v>
+      </c>
+      <c r="K17">
+        <v>0.9958391337443062</v>
+      </c>
+      <c r="L17">
+        <v>0.9970589696431092</v>
+      </c>
+      <c r="M17">
+        <v>0.9964040590576269</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>1.014706532736172</v>
+      </c>
+      <c r="D18">
+        <v>0.943992376934686</v>
+      </c>
+      <c r="E18">
+        <v>1.006122077425917</v>
+      </c>
+      <c r="F18">
+        <v>1.014706532736172</v>
+      </c>
+      <c r="G18">
+        <v>0.972260084439138</v>
+      </c>
+      <c r="H18">
+        <v>1.022451578629527</v>
+      </c>
+      <c r="I18">
+        <v>1.009240309848914</v>
+      </c>
+      <c r="J18">
+        <v>0.943992376934686</v>
+      </c>
+      <c r="K18">
+        <v>0.9750572271803017</v>
+      </c>
+      <c r="L18">
+        <v>0.994881879958237</v>
+      </c>
+      <c r="M18">
+        <v>0.9947954933357259</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>1.033443441907682</v>
+      </c>
+      <c r="D19">
+        <v>0.8399899979272517</v>
+      </c>
+      <c r="E19">
+        <v>1.033132714807611</v>
+      </c>
+      <c r="F19">
+        <v>1.033443441907682</v>
+      </c>
+      <c r="G19">
+        <v>0.9055783693225501</v>
+      </c>
+      <c r="H19">
+        <v>1.101052795982123</v>
+      </c>
+      <c r="I19">
+        <v>1.038429933445363</v>
+      </c>
+      <c r="J19">
+        <v>0.8399899979272517</v>
+      </c>
+      <c r="K19">
+        <v>0.9365613563674313</v>
+      </c>
+      <c r="L19">
+        <v>0.9850023991375567</v>
+      </c>
+      <c r="M19">
+        <v>0.99193787556543</v>
       </c>
     </row>
   </sheetData>
